--- a/TheData/PlasmaNTABiorep123.xlsx
+++ b/TheData/PlasmaNTABiorep123.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/OWC Envoy Ultra/NTAvisualizationInR/TheData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF68EF1-87AD-AB41-AED5-CC4E3953C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A2F286-3CE6-BC47-A7BB-E7EA6486FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="29760" windowHeight="16520" xr2:uid="{2F8EDB36-4302-408E-AB28-8E3ACE85B1B8}"/>
   </bookViews>
@@ -50,21 +50,6 @@
     <t>Sample</t>
   </si>
   <si>
-    <t>Filtered_Plasma</t>
-  </si>
-  <si>
-    <t>TFF1_Retentate</t>
-  </si>
-  <si>
-    <t>CC700_Peak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heparin_NHB </t>
-  </si>
-  <si>
-    <t>Heparin_HB</t>
-  </si>
-  <si>
     <t>Median_Size</t>
   </si>
   <si>
@@ -84,6 +69,21 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>a Input</t>
+  </si>
+  <si>
+    <t>b TFF1</t>
+  </si>
+  <si>
+    <t>c SEC_CaptoCore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e Heparin_NHB </t>
+  </si>
+  <si>
+    <t>d Heparin_HB</t>
   </si>
 </sst>
 </file>
@@ -475,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E72F45-7698-44BC-AB84-B57A658D35F1}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -502,105 +500,105 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="5">
-        <v>8500000000000</v>
+        <v>12000000000000</v>
       </c>
       <c r="D2" s="5">
-        <v>79.8</v>
+        <v>84.2</v>
       </c>
       <c r="E2" s="5">
-        <v>105.9</v>
+        <v>106.9</v>
       </c>
       <c r="F2" s="5">
-        <v>48.6</v>
+        <v>46.4</v>
       </c>
       <c r="G2" s="5">
-        <v>96.3</v>
+        <v>99.1</v>
       </c>
       <c r="H2" s="5">
-        <v>-19.09</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>-16.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="5">
-        <v>14000000000000</v>
+        <v>5700000000000</v>
       </c>
       <c r="D3" s="5">
-        <v>86</v>
+        <v>99.4</v>
       </c>
       <c r="E3" s="5">
-        <v>104.4</v>
+        <v>121.5</v>
       </c>
       <c r="F3" s="5">
-        <v>35</v>
+        <v>45.2</v>
       </c>
       <c r="G3" s="5">
-        <v>101.2</v>
+        <v>111.9</v>
       </c>
       <c r="H3" s="5">
-        <v>-11.08</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>-15.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="5">
-        <v>15000000000000</v>
+        <v>3600000000000</v>
       </c>
       <c r="D4" s="5">
-        <v>114.6</v>
+        <v>114.2</v>
       </c>
       <c r="E4" s="5">
-        <v>134.1</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="F4" s="5">
-        <v>48.18</v>
+        <v>64.2</v>
       </c>
       <c r="G4" s="5">
-        <v>128.6</v>
+        <v>123.8</v>
       </c>
       <c r="H4" s="5">
-        <v>-8.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>-15.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
         <v>11000000000000</v>
@@ -621,293 +619,296 @@
         <v>-15.76</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3500000000000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>88.4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>108.9</v>
+      </c>
+      <c r="F6" s="5">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="G6" s="5">
+        <v>103</v>
+      </c>
+      <c r="H6" s="5">
+        <v>-25.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12000000000000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>110.6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>57.3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>122.7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>-12.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8500000000000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>79.8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>105.9</v>
+      </c>
+      <c r="F8" s="5">
+        <v>48.6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>96.3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>-19.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1800000000000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>90.8</v>
+      </c>
+      <c r="E9" s="5">
+        <v>117.5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>62.8</v>
+      </c>
+      <c r="G9" s="5">
+        <v>102.6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>-50.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>7800000000000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>86</v>
+      </c>
+      <c r="E10" s="5">
+        <v>113.1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>58.1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>99.4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>-20.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C11" s="5">
+        <v>15000000000000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>114.6</v>
+      </c>
+      <c r="E11" s="5">
+        <v>134.1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>48.18</v>
+      </c>
+      <c r="G11" s="5">
+        <v>128.6</v>
+      </c>
+      <c r="H11" s="5">
+        <v>-8.76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6100000000000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>100.6</v>
+      </c>
+      <c r="E12" s="5">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>58.8</v>
+      </c>
+      <c r="G12" s="5">
+        <v>109.8</v>
+      </c>
+      <c r="H12" s="5">
+        <v>-48.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5">
+        <v>13000000000000</v>
+      </c>
+      <c r="D13" s="5">
+        <v>103.1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>122.2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>52</v>
+      </c>
+      <c r="G13" s="5">
+        <v>114.4</v>
+      </c>
+      <c r="H13" s="5">
+        <v>-13.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5">
-        <v>12000000000000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>84.2</v>
-      </c>
-      <c r="E6" s="5">
-        <v>106.9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>46.4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>99.1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-16.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5">
+        <v>14000000000000</v>
+      </c>
+      <c r="D14" s="5">
+        <v>86</v>
+      </c>
+      <c r="E14" s="5">
+        <v>104.4</v>
+      </c>
+      <c r="F14" s="5">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5">
+        <v>101.2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-11.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
         <v>1800000000000</v>
       </c>
-      <c r="D7" s="5">
-        <v>90.8</v>
-      </c>
-      <c r="E7" s="5">
-        <v>117.5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>62.8</v>
-      </c>
-      <c r="G7" s="5">
-        <v>102.6</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-50.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1800000000000</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="D15" s="5">
         <v>91</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E15" s="5">
         <v>116.1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F15" s="5">
         <v>50.7</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G15" s="5">
         <v>103.1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H15" s="5">
         <v>-48.51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>6100000000000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>100.6</v>
-      </c>
-      <c r="E9" s="5">
-        <v>128.19999999999999</v>
-      </c>
-      <c r="F9" s="5">
-        <v>58.8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>109.8</v>
-      </c>
-      <c r="H9" s="5">
-        <v>-48.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3500000000000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>88.4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>108.9</v>
-      </c>
-      <c r="F10" s="5">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="G10" s="5">
-        <v>103</v>
-      </c>
-      <c r="H10" s="5">
-        <v>-25.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5700000000000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>99.4</v>
-      </c>
-      <c r="E11" s="5">
-        <v>121.5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>45.2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>111.9</v>
-      </c>
-      <c r="H11" s="5">
-        <v>-15.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5">
-        <v>7800000000000</v>
-      </c>
-      <c r="D12" s="5">
-        <v>86</v>
-      </c>
-      <c r="E12" s="5">
-        <v>113.1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>58.1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>99.4</v>
-      </c>
-      <c r="H12" s="5">
-        <v>-20.93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5">
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5">
         <v>3100000000000</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D16" s="5">
         <v>72.2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E16" s="5">
         <v>98.1</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F16" s="5">
         <v>42.7</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G16" s="5">
         <v>92.1</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H16" s="5">
         <v>-19.78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>13000000000000</v>
-      </c>
-      <c r="D14" s="5">
-        <v>103.1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>122.2</v>
-      </c>
-      <c r="F14" s="5">
-        <v>52</v>
-      </c>
-      <c r="G14" s="5">
-        <v>114.4</v>
-      </c>
-      <c r="H14" s="5">
-        <v>-13.83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5">
-        <v>12000000000000</v>
-      </c>
-      <c r="D15" s="5">
-        <v>110.6</v>
-      </c>
-      <c r="E15" s="5">
-        <v>130.69999999999999</v>
-      </c>
-      <c r="F15" s="5">
-        <v>57.3</v>
-      </c>
-      <c r="G15" s="5">
-        <v>122.7</v>
-      </c>
-      <c r="H15" s="5">
-        <v>-12.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5">
-        <v>3600000000000</v>
-      </c>
-      <c r="D16" s="5">
-        <v>114.2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>135.19999999999999</v>
-      </c>
-      <c r="F16" s="5">
-        <v>64.2</v>
-      </c>
-      <c r="G16" s="5">
-        <v>123.8</v>
-      </c>
-      <c r="H16" s="5">
-        <v>-15.9</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
